--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -69,9 +69,6 @@
     <t>Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).</t>
   </si>
   <si>
-    <t>Trong phần Customer, cho phép nhân viên Sales chỉnh sửa thêm mục CustomerType và Status.</t>
-  </si>
-  <si>
     <t>Phần màu vàng này Sơn sẽ giải thích thêm để Đan có thể hiểu được logic của nó. Mình sẽ voice trực tiếp qua skype nhé.
 Đan xem qua file \trunk\01_DOCUMENT\20110516_Masterlist_Final.XLS để hiểu thêm trước nha.</t>
   </si>
@@ -81,6 +78,253 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Trong phần Dashboard, khi thêm mới 1 dashboard, thêm 1 mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ngay bên phải mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để Administrator có thể gửi thông báo có đính kèm theo file.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Sơn có chỉnh giao diện lại chút xíu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trong phần Dashboard, thêm cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" sau cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>download file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPICode, Fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cho Grid dữ liệu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Customer Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Cả 2 bên đều ok hết rồi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bên Administrator Đan cho thêm nút Clear giồng như bên Salesmen vô dùm Sơn nữa nhé. Thanks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần View Log của Edited Customers, hiển thị thêm grid dữ liệu chưa chỉnh sửa (table Customers) của khách hàng đó để admin so sánh trước khi approve.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Sơn có chỉnh giao diện lại chút xíu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hạn chế gửi tin nhắn trong 1 ngày của khách hàng, chỉ cho phép gửi 5 tin nhắn trong 1 ngày mà thôi. 
+Để làm được thì mình sẽ thêm 2 fields nữa vào table Customers trong Database là : LastLoggedDate và UsedSMS.
+Mỗi lần khách hàng reply lại sms thì mình sẽ kiểm tra 2 field này. Nếu đã gửi đủ 5 tin nhắn trong 1 ngày rồi thì Disable nút Reply (hiển thị nút Reply mờ) đi.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Mỗi khi khách hàng login vào hệ thống thì mình sẽ kiểm tra nếu LastLoggedDate &lt; Now thì reset field UsedSMS của khách hàng đó về 0 trở lại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Có reset về 0 nhưng user có thể chỉnh lại ngày giờ trên máy là có thể gửi được nữa. Cho nên mình kiểm tra ngày trên database server chứ không phải ngày hệ thống.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Trong phần SMS List, thêm dòng thông báo số lượng SMS đã dùng ngay bên dưới Grid dữ liệu như sau.
 Used : </t>
     </r>
@@ -137,150 +381,80 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> SMS message per day)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Trong phần Dashboard, thêm cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" sau cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Content"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, khi thêm mới 1 dashboard, thêm 1 mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>File</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ngay bên phải mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Content</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để Administrator có thể gửi thông báo có đính kèm theo file.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>download file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UPICode, Fullname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cho Grid dữ liệu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Customer Management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Trong phần View Log của Edited Customers, hiển thị thêm grid dữ liệu chưa chỉnh sửa (table Customers) của khách hàng đó để admin so sánh trước khi approve.</t>
+      <t xml:space="preserve"> SMS message per day)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Sơn có chỉnh giao diện lại chút xíu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, cho phép nhân viên Sales chỉnh sửa thêm mục CustomerType và Status.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm 1 text area để nhân viên Sales đó ghi chú thêm khi chỉnh sửa thông tin khách hàng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -337,7 +511,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Khi approve thì giữ nguyên và không delete record log đó đi trong table CustomerLog.
+      <t xml:space="preserve">Khi approve thì giữ nguyên và không delete record log đó đi trong table CustomerLog. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>---&gt; ok nhưng approve sai record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 - Thêm 1 nút delete sau cột </t>
     </r>
     <r>
@@ -355,27 +546,33 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> để cho admin xóa sau. Click vào nút delete thì sẽ thực hiện xóa record log đó ra khỏi table CustomerLog.</t>
-    </r>
-  </si>
-  <si>
-    <t>Hạn chế gửi tin nhắn trong 1 ngày của khách hàng, chỉ cho phép gửi 5 tin nhắn trong 1 ngày mà thôi. 
-Để làm được thì mình sẽ thêm 2 fields nữa vào table Customers trong Database là : LastLoggedDate và UsedSMS.
-Mỗi lần khách hàng reply lại sms thì mình sẽ kiểm tra 2 field này. Nếu đã gửi đủ 5 tin nhắn trong 1 ngày rồi thì Disable nút Reply (hiển thị nút Reply mờ) đi.
-Mỗi khi khách hàng login vào hệ thống thì mình sẽ kiểm tra nếu LastLoggedDate &lt; Now thì reset field UsedSMS của khách hàng đó về 0 trở lại.</t>
-  </si>
-  <si>
-    <t>Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)</t>
-  </si>
-  <si>
-    <t>Trong phần Customer, thêm 1 text area để nhân viên Sales đó ghi chú thêm khi chỉnh sửa thông tin khách hàng.</t>
+      <t xml:space="preserve"> để cho admin xóa sau. Click vào nút delete thì sẽ thực hiện xóa record log đó ra khỏi table CustomerLog. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">---&gt; cái này thì ok rồi Đan. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Khi xóa record cuối cùng thì grid hiển thị bị lỗi.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,6 +635,18 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -509,95 +718,95 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,498 +1210,498 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="108" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="24">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="B8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="G8" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A9" s="24">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A10" s="24">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="27"/>
+      <c r="B10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A11" s="24">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="27"/>
+      <c r="B11" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="25"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A12" s="24">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+      <c r="A12" s="22">
         <v>5</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="B12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="75" customHeight="1">
-      <c r="A13" s="24">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1">
+      <c r="A13" s="22">
         <v>6</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" ht="110.1" customHeight="1">
-      <c r="A14" s="24">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="140.1" customHeight="1">
+      <c r="A14" s="22">
         <v>7</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26" t="s">
+      <c r="B14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="60" customHeight="1">
-      <c r="A15" s="24">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="80.099999999999994" customHeight="1">
+      <c r="A15" s="22">
         <v>8</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A16" s="24">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A16" s="22">
         <v>9</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="24" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A17" s="24">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A17" s="22">
         <v>10</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="27"/>
+      <c r="B17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A18" s="24">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A18" s="22">
         <v>11</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="27"/>
+      <c r="B18" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="25"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A20" s="20">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A20" s="18">
         <v>1</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="G20" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A21" s="20">
+      <c r="C20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="G20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A21" s="18">
         <v>2</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A22" s="20">
+      <c r="C21" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A22" s="18">
         <v>3</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A23" s="20">
+      <c r="C22" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A23" s="18">
         <v>4</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-    </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A24" s="20">
+      <c r="C23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A24" s="18">
         <v>5</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A25" s="20">
+      <c r="C24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A25" s="18">
         <v>6</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-    </row>
-    <row r="26" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" s="17" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" s="4" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="C25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" ht="21.95" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -289,6 +289,250 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Trong phần SMS List, thêm dòng thông báo số lượng SMS đã dùng ngay bên dưới Grid dữ liệu như sau.
+Used : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SMS - Remaining : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SMS.
+(You can send </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SMS message per day)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Sơn có chỉnh giao diện lại chút xíu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, cho phép nhân viên Sales chỉnh sửa thêm mục CustomerType và Status.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm 1 text area để nhân viên Sales đó ghi chú thêm khi chỉnh sửa thông tin khách hàng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Customer Info </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(table Customers) và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Edited Info </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(table CustomerLog)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Khi approve thì giữ nguyên và không delete record log đó đi trong table CustomerLog. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>---&gt; ok nhưng approve sai record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Thêm 1 nút delete sau cột </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để cho admin xóa sau. Click vào nút delete thì sẽ thực hiện xóa record log đó ra khỏi table CustomerLog. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">---&gt; cái này thì ok rồi Đan. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Khi xóa record cuối cùng thì grid hiển thị bị lỗi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Hạn chế gửi tin nhắn trong 1 ngày của khách hàng, chỉ cho phép gửi 5 tin nhắn trong 1 ngày mà thôi. 
 Để làm được thì mình sẽ thêm 2 fields nữa vào table Customers trong Database là : LastLoggedDate và UsedSMS.
 Mỗi lần khách hàng reply lại sms thì mình sẽ kiểm tra 2 field này. Nếu đã gửi đủ 5 tin nhắn trong 1 ngày rồi thì Disable nút Reply (hiển thị nút Reply mờ) đi.
@@ -320,259 +564,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Có reset về 0 nhưng user có thể chỉnh lại ngày giờ trên máy là có thể gửi được nữa. Cho nên mình kiểm tra ngày trên database server chứ không phải ngày hệ thống.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần SMS List, thêm dòng thông báo số lượng SMS đã dùng ngay bên dưới Grid dữ liệu như sau.
-Used : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SMS - Remaining : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SMS.
-(You can send </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> SMS message per day)
+      <t xml:space="preserve">[Sơn] - Có reset về 0 nhưng user có thể chỉnh lại ngày giờ trên máy là có thể gửi được nữa. Cho nên mình kiểm tra ngày trên database server chứ không phải ngày hệ thống.
 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Ok Đan. Sơn có chỉnh giao diện lại chút xíu.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, cho phép nhân viên Sales chỉnh sửa thêm mục CustomerType và Status.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Ok Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, thêm 1 text area để nhân viên Sales đó ghi chú thêm khi chỉnh sửa thông tin khách hàng.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Ok Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Customer Info </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(table Customers) và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Edited Info </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(table CustomerLog)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Khi approve thì giữ nguyên và không delete record log đó đi trong table CustomerLog. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>---&gt; ok nhưng approve sai record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Thêm 1 nút delete sau cột </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để cho admin xóa sau. Click vào nút delete thì sẽ thực hiện xóa record log đó ra khỏi table CustomerLog. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">---&gt; cái này thì ok rồi Đan. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Khi xóa record cuối cùng thì grid hiển thị bị lỗi.</t>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] LastLoggedDate la gio Server co`n khi user log vao system thi` minh lay gio Server de check chu ko lay gio client de check dau (server code ma`). Nen User co doi gio` cua ho cung ko anh huong dau Son, co the do Son test nen thay vay vi` may Son (client) cung la` server luon (co cai SQL Server)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -650,6 +660,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -881,7 +897,15 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1206,16 +1230,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1225,7 +1249,7 @@
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>12</v>
       </c>
@@ -1233,13 +1257,13 @@
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1247,19 +1271,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1292,7 +1316,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1308,7 +1332,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -1326,7 +1350,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1344,7 +1368,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1360,12 +1384,12 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>14</v>
@@ -1376,12 +1400,12 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="140.1" customHeight="1">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="25"/>
@@ -1392,12 +1416,12 @@
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
@@ -1408,12 +1432,12 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
@@ -1424,12 +1448,12 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="24" t="s">
@@ -1440,12 +1464,12 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>14</v>
@@ -1458,14 +1482,14 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>1</v>
       </c>
@@ -1483,7 +1507,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -1499,7 +1523,7 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>3</v>
       </c>
@@ -1515,7 +1539,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -1531,7 +1555,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -1547,7 +1571,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -1563,140 +1587,140 @@
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:9" s="15" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
     </row>
-    <row r="45" spans="1:5" ht="21.95" customHeight="1">
+    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -1718,12 +1742,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1732,12 +1756,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -42,9 +42,6 @@
     <t>Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local</t>
   </si>
   <si>
-    <t>Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>þ</t>
-  </si>
-  <si>
-    <t>Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).</t>
   </si>
   <si>
     <t>Phần màu vàng này Sơn sẽ giải thích thêm để Đan có thể hiểu được logic của nó. Mình sẽ voice trực tiếp qua skype nhé.
@@ -127,55 +121,6 @@
   </si>
   <si>
     <r>
-      <t>Trong phần Dashboard, thêm cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" sau cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Content"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
     </r>
     <r>
@@ -208,72 +153,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UPICode, Fullname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cho Grid dữ liệu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Customer Management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Ok Đan. Cả 2 bên đều ok hết rồi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Bên Administrator Đan cho thêm nút Clear giồng như bên Salesmen vô dùm Sơn nữa nhé. Thanks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Trong phần View Log của Edited Customers, hiển thị thêm grid dữ liệu chưa chỉnh sửa (table Customers) của khách hàng đó để admin so sánh trước khi approve.
 </t>
     </r>
@@ -360,38 +239,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Trong phần Customer, cho phép nhân viên Sales chỉnh sửa thêm mục CustomerType và Status.
 </t>
     </r>
@@ -418,117 +265,6 @@
         <family val="2"/>
       </rPr>
       <t>[Sơn] - Ok Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Customer Info </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(table Customers) và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Edited Info </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(table CustomerLog)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Khi approve thì giữ nguyên và không delete record log đó đi trong table CustomerLog. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>---&gt; ok nhưng approve sai record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- Thêm 1 nút delete sau cột </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để cho admin xóa sau. Click vào nút delete thì sẽ thực hiện xóa record log đó ra khỏi table CustomerLog. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">---&gt; cái này thì ok rồi Đan. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Khi xóa record cuối cùng thì grid hiển thị bị lỗi.</t>
     </r>
   </si>
   <si>
@@ -575,6 +311,348 @@
         <family val="2"/>
       </rPr>
       <t>[Dan] LastLoggedDate la gio Server co`n khi user log vao system thi` minh lay gio Server de check chu ko lay gio client de check dau (server code ma`). Nen User co doi gio` cua ho cung ko anh huong dau Son, co the do Son test nen thay vay vi` may Son (client) cung la` server luon (co cai SQL Server)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPICode, Fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cho Grid dữ liệu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Customer Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Cả 2 bên đều ok hết rồi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bên Administrator Đan cho thêm nút Clear giồng như bên Salesmen vô dùm Sơn nữa nhé. Thanks.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Customer Info </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(table Customers) và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Edited Info </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(table CustomerLog)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Khi approve thì giữ nguyên và không delete record log đó đi trong table CustomerLog. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">---&gt; ok nhưng approve sai record </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- Thêm 1 nút delete sau cột </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để cho admin xóa sau. Click vào nút delete thì sẽ thực hiện xóa record log đó ra khỏi table CustomerLog. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">---&gt; cái này thì ok rồi Đan. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Khi xóa record cuối cùng thì grid hiển thị bị lỗi.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Fixed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trong phần Dashboard, thêm cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" sau cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
     </r>
   </si>
 </sst>
@@ -582,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -661,6 +739,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0000CC"/>
       <name val="Arial"/>
@@ -1234,9 +1319,9 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1251,7 +1336,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1292,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1303,15 +1388,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="G8" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -1321,10 +1406,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -1337,31 +1422,31 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="28"/>
@@ -1373,10 +1458,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1389,10 +1474,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -1405,12 +1490,12 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1421,12 +1506,12 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1437,12 +1522,12 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1453,11 +1538,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="25"/>
       <c r="G17" s="28"/>
@@ -1469,13 +1554,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E18" s="25"/>
       <c r="G18" s="28"/>
@@ -1494,15 +1579,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="G20" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -1512,10 +1597,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -1531,7 +1616,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1544,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1560,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1576,10 +1661,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -39,9 +39,6 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -642,6 +639,22 @@
   <si>
     <r>
       <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
 </t>
     </r>
     <r>
@@ -1319,9 +1332,9 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1349,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1377,10 +1390,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -1388,28 +1401,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="G8" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -1422,13 +1435,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="28"/>
@@ -1440,13 +1453,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="28"/>
@@ -1458,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1474,10 +1487,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -1490,12 +1503,12 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1506,12 +1519,12 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1522,12 +1535,12 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1538,11 +1551,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="25"/>
       <c r="G17" s="28"/>
@@ -1554,13 +1567,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="25"/>
       <c r="G18" s="28"/>
@@ -1579,15 +1592,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="G20" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -1597,10 +1610,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -1613,10 +1626,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1629,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1645,10 +1658,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1661,10 +1674,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -45,16 +45,10 @@
     <t>Trong phần Import Customer, chức năng import thực hiện sai.</t>
   </si>
   <si>
-    <t>Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.</t>
-  </si>
-  <si>
     <t>Salesmen</t>
   </si>
   <si>
     <t>REVIEW SHEET</t>
-  </si>
-  <si>
-    <t>Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.</t>
   </si>
   <si>
     <t>þ</t>
@@ -114,38 +108,6 @@
         <family val="2"/>
       </rPr>
       <t>[Sơn] - Ok Đan. Sơn có chỉnh giao diện lại chút xíu.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>download file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.</t>
     </r>
   </si>
   <si>
@@ -666,6 +628,81 @@
         <family val="2"/>
       </rPr>
       <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>download file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Co' roi ma` Son, check lai giup nhe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het</t>
     </r>
   </si>
 </sst>
@@ -673,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -761,6 +798,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF0000CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1332,9 +1376,9 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1349,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1390,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
@@ -1401,15 +1445,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="G8" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -1419,10 +1463,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -1435,13 +1479,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="28"/>
@@ -1453,13 +1497,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="28"/>
@@ -1471,10 +1515,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1487,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -1498,17 +1542,17 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1519,12 +1563,12 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1535,12 +1579,12 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1551,11 +1595,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" s="25"/>
       <c r="G17" s="28"/>
@@ -1567,13 +1611,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" s="25"/>
       <c r="G18" s="28"/>
@@ -1592,15 +1636,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="G20" s="26" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -1610,10 +1654,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -1626,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1637,15 +1681,15 @@
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1653,15 +1697,15 @@
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1677,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -42,9 +42,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Trong phần Import Customer, chức năng import thực hiện sai.</t>
-  </si>
-  <si>
     <t>Salesmen</t>
   </si>
   <si>
@@ -703,6 +700,22 @@
         <family val="2"/>
       </rPr>
       <t>[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son?</t>
     </r>
   </si>
 </sst>
@@ -1378,7 +1391,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1393,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1434,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
@@ -1445,15 +1458,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="G8" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -1463,10 +1476,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
@@ -1479,13 +1492,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="25"/>
       <c r="G10" s="28"/>
@@ -1497,13 +1510,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="25"/>
       <c r="G11" s="28"/>
@@ -1515,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -1531,10 +1544,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -1547,12 +1560,12 @@
         <v>7</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="25"/>
       <c r="E14" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -1563,12 +1576,12 @@
         <v>8</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -1579,12 +1592,12 @@
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1595,11 +1608,11 @@
         <v>10</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="25"/>
       <c r="G17" s="28"/>
@@ -1611,13 +1624,13 @@
         <v>11</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="25"/>
       <c r="G18" s="28"/>
@@ -1636,15 +1649,15 @@
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="G20" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -1654,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -1670,10 +1683,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1686,10 +1699,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1702,10 +1715,10 @@
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1713,15 +1726,15 @@
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
     </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>6</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$F$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Task Name</t>
   </si>
@@ -271,6 +271,173 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trong phần Dashboard, thêm cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" sau cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>download file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Co' roi ma` Son, check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Bên ngoài grid Data thì có nhưng khi popup lên thì chưa có. Đan thử lại nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
     </r>
     <r>
@@ -343,8 +510,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done</t>
-    </r>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
+  </si>
+  <si>
+    <t>% Status</t>
   </si>
   <si>
     <r>
@@ -474,47 +655,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Fixed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Trong phần Dashboard, thêm cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" sau cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Content"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
-</t>
+      <t xml:space="preserve">[Dan] Fixed
+[Sơn] - Ok rồi Đan. </t>
     </r>
     <r>
       <rPr>
@@ -523,7 +665,12 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
+      <t>Đan fix dùm Sơn bug khi xóa hết record rồi click nút Approve thì nó bị lỗi luôn nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
 </t>
     </r>
     <r>
@@ -534,39 +681,24 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thêm chức năng View Info để khách hàng xem thông tin cơ bản của họ. (giống như bên Administrator)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Hiển thị thông tin ok rồi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">nhưng cần bung lớn bề rộng ra luôn, không cần hiển thị SMS List bên trái. </t>
+      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
     </r>
     <r>
       <rPr>
@@ -576,12 +708,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
 </t>
     </r>
     <r>
@@ -592,12 +735,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Sơn không thấy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
 </t>
     </r>
     <r>
@@ -608,12 +762,34 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
+      <t xml:space="preserve">[Dan] Done.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Đan check lại giúp Sơn là chỉ có Rep mới chọn được Group, Region, Area, Local thôi nhé vì Rep là nhân viên sale quản lý trực tiếp khách hàng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son? 
 </t>
     </r>
     <r>
@@ -624,12 +800,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
+      <t>[Sơn] - Đúng rồi Đan. Chức năng import hiện tại sai dữ liệu nên không thể hiện được mối quan hệ POC và POS, đồng thời khi mình search dữ liệu cũng ra sai thông tin luôn. Nên mình cần làm sạch lại database và sửa lại chức năng import để dữ liệu được import vào đúng table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
 </t>
     </r>
     <r>
@@ -640,90 +827,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>download file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Co' roi ma` Son, check lai giup nhe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son?</t>
+      <t>[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -887,7 +999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -964,6 +1076,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -977,6 +1092,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1385,40 +1503,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:C25"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:10" ht="30">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1426,23 +1547,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1452,8 +1573,11 @@
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1465,34 +1589,38 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="G8" s="28" t="s">
+      <c r="F8" s="22">
+        <v>100</v>
+      </c>
+      <c r="H8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="84.75" customHeight="1">
       <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="22"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1">
       <c r="A10" s="22">
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>9</v>
@@ -1501,16 +1629,17 @@
         <v>9</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="22"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>9</v>
@@ -1519,11 +1648,14 @@
         <v>9</v>
       </c>
       <c r="E11" s="25"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="22">
+        <v>100</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1535,27 +1667,33 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="22">
+        <v>100</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" customHeight="1">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="F13" s="22">
+        <v>98</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -1567,11 +1705,14 @@
       <c r="E14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="22">
+        <v>100</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -1583,27 +1724,33 @@
       <c r="E15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="22">
+        <v>100</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A16" s="22">
         <v>9</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="25"/>
       <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="22">
+        <v>100</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -1615,11 +1762,14 @@
         <v>9</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="22">
+        <v>100</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -1633,100 +1783,111 @@
         <v>9</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="22">
+        <v>100</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="18"/>
+      <c r="H20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1">
       <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="18"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="63.75" customHeight="1">
       <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F22" s="18">
+        <v>95</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="50.1" customHeight="1">
       <c r="A23" s="18">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="18"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="18"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -1738,154 +1899,183 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="18"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-    </row>
-    <row r="41" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="21.95" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
+      <c r="F45" s="16"/>
     </row>
   </sheetData>
+  <autoFilter ref="A7:F25">
+    <filterColumn colId="0" showButton="0"/>
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="98"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
-    <mergeCell ref="G20:I25"/>
-    <mergeCell ref="G8:I18"/>
+    <mergeCell ref="H20:J25"/>
+    <mergeCell ref="H8:J18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -1897,12 +2087,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1911,12 +2101,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Images" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$F$25</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -313,6 +313,243 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPICode, Fullname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cho Grid dữ liệu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Customer Management</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan. Cả 2 bên đều ok hết rồi.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Bên Administrator Đan cho thêm nút Clear giồng như bên Salesmen vô dùm Sơn nữa nhé. Thanks.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Ok Đan.</t>
+    </r>
+  </si>
+  <si>
+    <t>% Status</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Đúng rồi Đan. Chức năng import hiện tại sai dữ liệu nên không thể hiện được mối quan hệ POC và POS, đồng thời khi mình search dữ liệu cũng ra sai thông tin luôn. Nên mình cần làm sạch lại database và sửa lại chức năng import để dữ liệu được import vào đúng table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>download file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Co' roi ma` Son, check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Bên ngoài grid Data thì có nhưng khi popup lên thì chưa có. Đan thử lại nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Khi publish site se fix duoc cai Issue nay</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>Trong phần Dashboard, thêm cột "</t>
     </r>
     <r>
@@ -379,39 +616,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>download file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
+      <t xml:space="preserve">[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.
 </t>
     </r>
     <r>
@@ -422,110 +627,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Dan] Co' roi ma` Son, check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Bên ngoài grid Data thì có nhưng khi popup lên thì chưa có. Đan thử lại nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, thêm chức năng lọc dữ liệu theo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>UPICode, Fullname</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cho Grid dữ liệu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Customer Management</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Ok Đan. Cả 2 bên đều ok hết rồi.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Bên Administrator Đan cho thêm nút Clear giồng như bên Salesmen vô dùm Sơn nữa nhé. Thanks.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Ok Đan.</t>
-    </r>
-  </si>
-  <si>
-    <t>% Status</t>
+      <t>[Dan] Son coi lai coi duoc chua nha, thank you</t>
+    </r>
   </si>
   <si>
     <r>
@@ -665,12 +768,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Đan fix dùm Sơn bug khi xóa hết record rồi click nút Approve thì nó bị lỗi luôn nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
+      <t xml:space="preserve">Đan fix dùm Sơn bug khi xóa hết record rồi click nút Approve thì nó bị lỗi luôn nhé.
 </t>
     </r>
     <r>
@@ -681,6 +779,22 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>[Dan] fixed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">[Dan] Done
 </t>
     </r>
@@ -692,12 +806,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+      <t xml:space="preserve">[Sơn] - Sơn không thấy.
 </t>
     </r>
     <r>
@@ -708,7 +817,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Dan] Done
+      <t>[Dan] Son coi hinh ben Sheet Images nha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done.
 </t>
     </r>
     <r>
@@ -719,12 +844,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
+      <t xml:space="preserve">[Sơn] - Đan check lại giúp Sơn là chỉ có Rep mới chọn được Group, Region, Area, Local thôi nhé vì Rep là nhân viên sale quản lý trực tiếp khách hàng.
 </t>
     </r>
     <r>
@@ -735,7 +855,34 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Dan] Done
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
 </t>
     </r>
     <r>
@@ -746,96 +893,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Sơn không thấy.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Đan check lại giúp Sơn là chỉ có Rep mới chọn được Group, Region, Area, Local thôi nhé vì Rep là nhân viên sale quản lý trực tiếp khách hàng.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Đúng rồi Đan. Chức năng import hiện tại sai dữ liệu nên không thể hiện được mối quan hệ POC và POS, đồng thời khi mình search dữ liệu cũng ra sai thông tin luôn. Nên mình cần làm sạch lại database và sửa lại chức năng import để dữ liệu được import vào đúng table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List</t>
+      <t>[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1079,6 +1145,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1092,9 +1161,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,6 +1246,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10058400" cy="4693920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1503,17 +1618,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1524,22 +1639,22 @@
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1547,23 +1662,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1574,10 +1689,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1592,18 +1707,18 @@
       <c r="F8" s="22">
         <v>100</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="84.75" customHeight="1">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>9</v>
@@ -1611,16 +1726,16 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="22"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="60" customHeight="1">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>9</v>
@@ -1630,16 +1745,16 @@
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="22"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>9</v>
@@ -1651,11 +1766,11 @@
       <c r="F11" s="22">
         <v>100</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1670,16 +1785,16 @@
       <c r="F12" s="22">
         <v>100</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" customHeight="1">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
@@ -1689,11 +1804,11 @@
       <c r="F13" s="22">
         <v>98</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -1708,11 +1823,11 @@
       <c r="F14" s="22">
         <v>100</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -1727,11 +1842,11 @@
       <c r="F15" s="22">
         <v>100</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -1746,11 +1861,11 @@
       <c r="F16" s="22">
         <v>100</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -1765,11 +1880,11 @@
       <c r="F17" s="22">
         <v>100</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -1786,11 +1901,11 @@
       <c r="F18" s="22">
         <v>100</v>
       </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -1798,12 +1913,12 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
@@ -1811,18 +1926,18 @@
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="18"/>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1">
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>9</v>
@@ -1830,16 +1945,16 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="18"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="63.75" customHeight="1">
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>9</v>
@@ -1849,16 +1964,16 @@
       <c r="F22" s="18">
         <v>95</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="50.1" customHeight="1">
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>9</v>
@@ -1866,11 +1981,11 @@
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="18"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1">
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -1883,16 +1998,16 @@
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="18"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>6</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>9</v>
@@ -1900,11 +2015,11 @@
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="18"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -1912,7 +2027,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -1920,7 +2035,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -1928,7 +2043,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -1936,7 +2051,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -1944,7 +2059,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -1952,7 +2067,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -1960,7 +2075,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -1968,7 +2083,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -1976,7 +2091,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -1984,7 +2099,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -1992,7 +2107,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2000,7 +2115,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2008,7 +2123,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2016,7 +2131,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2024,7 +2139,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2032,7 +2147,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2040,7 +2155,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2048,7 +2163,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2056,7 +2171,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1">
+    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -2068,7 +2183,7 @@
   <autoFilter ref="A7:F25">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="98"/>
       </filters>
     </filterColumn>
@@ -2087,26 +2202,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$F$25</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -550,88 +550,6 @@
   </si>
   <si>
     <r>
-      <t>Trong phần Dashboard, thêm cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" sau cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Content"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Son coi lai coi duoc chua nha, thank you</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
 - </t>
     </r>
@@ -860,6 +778,109 @@
   </si>
   <si>
     <r>
+      <t>Trong phần Dashboard, thêm cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" sau cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son coi lai coi duoc chua nha, thank you
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Đan xem rồi chỉnh lại theo hình 1 Sơn gửi nhé.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
 </t>
     </r>
@@ -893,15 +914,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do</t>
+      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1274,7 +1306,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1618,17 +1650,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1639,7 +1671,7 @@
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1647,14 +1679,14 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1662,19 +1694,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1713,24 +1745,26 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="114.75">
       <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="22">
+        <v>90</v>
+      </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -1744,12 +1778,14 @@
         <v>9</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="22">
+        <v>100</v>
+      </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1770,7 +1806,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1789,12 +1825,12 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" hidden="1" customHeight="1">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
@@ -1802,13 +1838,13 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="22">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -1827,7 +1863,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -1846,7 +1882,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -1865,7 +1901,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -1884,7 +1920,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -1905,7 +1941,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -1913,7 +1949,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A20" s="18">
         <v>1</v>
       </c>
@@ -1932,7 +1968,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -1949,12 +1985,12 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
       <c r="A22" s="18">
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>9</v>
@@ -1962,30 +1998,32 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="18">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="69.75" hidden="1" customHeight="1">
       <c r="A23" s="18">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>100</v>
+      </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="117.75" customHeight="1">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -2002,7 +2040,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -2019,7 +2057,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -2027,7 +2065,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -2035,7 +2073,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -2043,7 +2081,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2051,7 +2089,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -2059,7 +2097,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2067,7 +2105,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -2075,7 +2113,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -2083,7 +2121,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -2091,7 +2129,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2099,7 +2137,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2107,7 +2145,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2115,7 +2153,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2123,7 +2161,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2131,7 +2169,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2139,7 +2177,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2147,7 +2185,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2155,7 +2193,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2163,7 +2201,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2171,7 +2209,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="21.95" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -2183,8 +2221,8 @@
   <autoFilter ref="A7:F25">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="5">
-      <filters>
-        <filter val="98"/>
+      <filters blank="1">
+        <filter val="90"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2202,12 +2240,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2217,12 +2255,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -876,7 +876,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> 
+[Dan] Done, Son coi lai giup nhe</t>
     </r>
   </si>
   <si>
@@ -925,15 +926,26 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.</t>
+      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1306,7 +1318,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1650,17 +1662,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1671,7 +1683,7 @@
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1679,14 +1691,14 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1694,19 +1706,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1745,7 +1757,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="114.75">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1764,7 +1776,7 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -1785,7 +1797,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1806,7 +1818,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1825,7 +1837,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
@@ -1844,7 +1856,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -1863,7 +1875,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -1882,7 +1894,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -1901,7 +1913,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -1920,7 +1932,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -1941,7 +1953,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -1949,7 +1961,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>1</v>
       </c>
@@ -1968,7 +1980,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -1985,7 +1997,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>3</v>
       </c>
@@ -2004,7 +2016,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="69.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -2023,7 +2035,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="117.75" customHeight="1">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -2040,7 +2052,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -2057,7 +2069,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -2065,7 +2077,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -2073,7 +2085,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -2081,7 +2093,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2089,7 +2101,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -2097,7 +2109,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2105,7 +2117,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -2113,7 +2125,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -2121,7 +2133,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -2129,7 +2141,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2137,7 +2149,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2145,7 +2157,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2153,7 +2165,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2161,7 +2173,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2169,7 +2181,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2177,7 +2189,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2185,7 +2197,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2193,7 +2205,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2201,7 +2213,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2209,7 +2221,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1">
+    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -2221,7 +2233,7 @@
   <autoFilter ref="A7:F25">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="5">
-      <filters blank="1">
+      <filters>
         <filter val="90"/>
       </filters>
     </filterColumn>
@@ -2240,12 +2252,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2255,12 +2267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -944,8 +944,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1318,7 +1318,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1662,17 +1662,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1683,7 +1683,7 @@
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
@@ -1691,14 +1691,14 @@
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
     </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1706,19 +1706,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1">
       <c r="A7" s="31" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="127.5" hidden="1">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1770,13 +1770,13 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="22">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" hidden="1" customHeight="1">
       <c r="A13" s="22">
         <v>6</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -1894,7 +1894,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="I17" s="30"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -1961,7 +1961,7 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1">
       <c r="A20" s="18">
         <v>1</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
       <c r="A22" s="18">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="69.75" hidden="1" customHeight="1">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="117.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -2077,7 +2077,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
@@ -2085,7 +2085,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -2093,7 +2093,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2101,7 +2101,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -2109,7 +2109,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2117,7 +2117,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -2125,7 +2125,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -2133,7 +2133,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -2141,7 +2141,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2149,7 +2149,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2157,7 +2157,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2165,7 +2165,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2173,7 +2173,7 @@
       <c r="E38" s="12"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2181,7 +2181,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2189,7 +2189,7 @@
       <c r="E40" s="12"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2197,7 +2197,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2205,7 +2205,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2213,7 +2213,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2221,7 +2221,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="21.95" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -2233,9 +2233,7 @@
   <autoFilter ref="A7:F25">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="5">
-      <filters>
-        <filter val="90"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <mergeCells count="4">
@@ -2252,12 +2250,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2267,12 +2265,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>Task Name</t>
   </si>
@@ -404,6 +404,396 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Đúng rồi Đan. Chức năng import hiện tại sai dữ liệu nên không thể hiện được mối quan hệ POC và POS, đồng thời khi mình search dữ liệu cũng ra sai thông tin luôn. Nên mình cần làm sạch lại database và sửa lại chức năng import để dữ liệu được import vào đúng table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>download file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Co' roi ma` Son, check lai giup nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Bên ngoài grid Data thì có nhưng khi popup lên thì chưa có. Đan thử lại nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Khi publish site se fix duoc cai Issue nay</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Sơn không thấy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Son coi hinh ben Sheet Images nha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan check lại giúp Sơn là chỉ có Rep mới chọn được Group, Region, Area, Local thôi nhé vì Rep là nhân viên sale quản lý trực tiếp khách hàng.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Done</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trong phần Dashboard, thêm cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view detail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" sau cột "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Content"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son coi lai coi duoc chua nha, thank you
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Đan xem rồi chỉnh lại theo hình 1 Sơn gửi nhé.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+[Dan] Done, Son coi lai giup nhe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
 </t>
     </r>
@@ -426,12 +816,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
 </t>
     </r>
     <r>
@@ -442,110 +827,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Dan] Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Import Customer, chức năng import thực hiện sai.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro them la` sai nhu the nao voi nha, co`n file template de import la` file 20110516_Masterlist_Final.XLS (du`ng TAB [VmUpiDistributorCodes] phai ko Son? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Đúng rồi Đan. Chức năng import hiện tại sai dữ liệu nên không thể hiện được mối quan hệ POC và POS, đồng thời khi mình search dữ liệu cũng ra sai thông tin luôn. Nên mình cần làm sạch lại database và sửa lại chức năng import để dữ liệu được import vào đúng table.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, hiển thị mục </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>download file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (nếu có file đính kèm) khi xem thông tin chi tiết của dashboard.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Bên Administrator thì ok rồi, còn bên Salesmen thì chưa có hiển thị.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Co' roi ma` Son, check lai giup nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Bên ngoài grid Data thì có nhưng khi popup lên thì chưa có. Đan thử lại nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Khi publish site se fix duoc cai Issue nay</t>
+      <t>[Sơn] - Khi chọn filter TROM thì TPS ra được danh sách, nhưng khi chọn TPS thì TPR không list ra được danh sách nhân viên Salesmen. Tương tự với PSR1 và PSR2 cũng không ra được danh sách nhân viên sales, Sơn xem bên phần Salesmen thì vẫn ra được kết quả.</t>
     </r>
   </si>
   <si>
@@ -697,23 +979,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] fixed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Customer, thêm 1 cột hiển thị tên nhân viên Sales quản lý trực tiếp khách hàng đó.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
+      <t xml:space="preserve">[Dan] fixed
 </t>
     </r>
     <r>
@@ -724,220 +990,30 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Sơn] - Sơn không thấy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Son coi hinh ben Sheet Images nha</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, khi thêm mới nhân viên Sales, cho mục chọn Group, Region, Area, Local
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Đan check lại giúp Sơn là chỉ có Rep mới chọn được Group, Region, Area, Local thôi nhé vì Rep là nhân viên sale quản lý trực tiếp khách hàng.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Done</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Trong phần Dashboard, thêm cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view detail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>" sau cột "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Content"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để Administrator có thể xem thông tin chi tiết của dashboard giống như bên Salesmen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Hiện tại đã view được thông tin rồi nhưng giao diện chưa giồng với bên Salesmen. Đan chỉnh lại cho giống nhé.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Giống như thế nào Sơn, mình thấy bên salesmen nó hiển thị details trên trang luôn chứ ko có popup, vậy là Son muốn hiển thị trên trang luôn phải không?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Sorry Đan, ý Sơn là giống như Dashboard của bên Sales Portal đó Đan. Đan login vào bên Sales Portal sẽ thấy.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son coi lai coi duoc chua nha, thank you
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Đan xem rồi chỉnh lại theo hình 1 Sơn gửi nhé.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-[Dan] Done, Son coi lai giup nhe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech</t>
+      <t>[Sơn] - Sau khi đã approved rồi thì không hiển thị "edited customer" record trong grid Data "Edited Customers" nữa.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sơn mới kiểm tra lại thì thấy dev trước đó chưa làm chức năng nhận SMS từ bên ngoài, chỉ mới làm chức năng gừi SMS từ hệ thống đến khách hàng và nhân viên Sales thôi. Nên Đan làm thêm chức năng này giúp Sơn nhé. Thanks Đan.
+Đan tham khảo tài liệu gửi và nhận SMS thông qua FIBO trong folder </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\trunk\01_DOCUMENT\FIBO - SMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> này nhé.</t>
     </r>
   </si>
 </sst>
@@ -1044,7 +1120,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,6 +1157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1109,7 +1191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1205,6 +1287,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,7 +1409,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1667,9 +1758,9 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1762,7 +1853,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>9</v>
@@ -1781,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>9</v>
@@ -1837,12 +1928,12 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="101.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" ht="133.5" customHeight="1">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
@@ -1850,7 +1941,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="22">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
@@ -1961,38 +2052,42 @@
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="66" customHeight="1">
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="104.25" customHeight="1">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18">
+        <v>10</v>
+      </c>
       <c r="H20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="66.75" customHeight="1">
+    <row r="21" spans="1:10" s="3" customFormat="1" ht="96" customHeight="1">
       <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>80</v>
+      </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -2002,7 +2097,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>9</v>
@@ -2016,12 +2111,12 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="69.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:10" s="3" customFormat="1" ht="51" hidden="1">
       <c r="A23" s="18">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>9</v>
@@ -2035,12 +2130,12 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="127.5" customHeight="1">
+    <row r="24" spans="1:10" s="3" customFormat="1" ht="144" customHeight="1">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>9</v>
@@ -2052,19 +2147,21 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" customHeight="1">
+    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" hidden="1" customHeight="1">
       <c r="A25" s="18">
         <v>6</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>100</v>
+      </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -2077,13 +2174,21 @@
       <c r="E26" s="12"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="10"/>
+    <row r="27" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="10"/>
@@ -2233,7 +2338,11 @@
   <autoFilter ref="A7:F25">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="5">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="10"/>
+        <filter val="80"/>
+        <filter val="95"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="4">

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$F$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$G$25</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Task Name</t>
   </si>
@@ -1015,13 +1015,19 @@
       </rPr>
       <t xml:space="preserve"> này nhé.</t>
     </r>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>Need to review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1119,8 +1125,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1163,6 +1175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1191,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1274,6 +1292,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1287,15 +1323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1409,7 +1436,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1753,43 +1780,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="4" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1797,23 +1824,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1823,11 +1850,14 @@
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1839,16 +1869,17 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="22">
+      <c r="F8" s="25"/>
+      <c r="G8" s="22">
         <v>100</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="I8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" ht="127.5" hidden="1">
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1860,14 +1891,15 @@
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="22">
+      <c r="F9" s="25"/>
+      <c r="G9" s="22">
         <v>100</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -1881,14 +1913,15 @@
         <v>9</v>
       </c>
       <c r="E10" s="25"/>
-      <c r="F10" s="22">
+      <c r="F10" s="25"/>
+      <c r="G10" s="22">
         <v>100</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1902,14 +1935,15 @@
         <v>9</v>
       </c>
       <c r="E11" s="25"/>
-      <c r="F11" s="22">
+      <c r="F11" s="25"/>
+      <c r="G11" s="22">
         <v>100</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -1921,14 +1955,15 @@
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="22">
+      <c r="F12" s="25"/>
+      <c r="G12" s="22">
         <v>100</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" ht="133.5" customHeight="1">
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
@@ -1940,14 +1975,17 @@
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="22">
+      <c r="F13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="22">
         <v>95</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" ht="165.75" hidden="1">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -1959,14 +1997,15 @@
       <c r="E14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="24"/>
+      <c r="G14" s="22">
         <v>100</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -1978,14 +2017,15 @@
       <c r="E15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="24"/>
+      <c r="G15" s="22">
         <v>100</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -1997,14 +2037,15 @@
       <c r="E16" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="24"/>
+      <c r="G16" s="22">
         <v>100</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -2016,14 +2057,15 @@
         <v>9</v>
       </c>
       <c r="E17" s="25"/>
-      <c r="F17" s="22">
+      <c r="F17" s="25"/>
+      <c r="G17" s="22">
         <v>100</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -2037,22 +2079,24 @@
         <v>9</v>
       </c>
       <c r="E18" s="25"/>
-      <c r="F18" s="22">
+      <c r="F18" s="25"/>
+      <c r="G18" s="22">
         <v>100</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" ht="104.25" customHeight="1">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>1</v>
       </c>
@@ -2064,16 +2108,19 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="18">
+      <c r="F20" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="18">
         <v>10</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="I20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" ht="96" customHeight="1">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -2085,14 +2132,17 @@
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="18">
+      <c r="F21" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="18">
         <v>80</v>
       </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:10" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>3</v>
       </c>
@@ -2104,14 +2154,15 @@
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="18">
+      <c r="F22" s="32"/>
+      <c r="G22" s="18">
         <v>100</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" s="3" customFormat="1" ht="51" hidden="1">
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -2123,14 +2174,15 @@
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="18">
+      <c r="F23" s="32"/>
+      <c r="G23" s="18">
         <v>100</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" s="3" customFormat="1" ht="144" customHeight="1">
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -2142,12 +2194,15 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="18"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" s="3" customFormat="1" ht="99" hidden="1" customHeight="1">
+      <c r="F24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -2159,185 +2214,206 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="18">
+      <c r="F25" s="21"/>
+      <c r="G25" s="18">
         <v>100</v>
       </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" s="3" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="33"/>
-    </row>
-    <row r="28" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F27" s="31"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" s="15" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:10" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F31" s="14"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F32" s="12"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F34" s="12"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F35" s="12"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F38" s="12"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F39" s="12"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F40" s="12"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F41" s="12"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F42" s="12"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="F43" s="12"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1">
+      <c r="F44" s="12"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="16"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:F25">
+  <autoFilter ref="A7:G25">
     <filterColumn colId="0" showButton="0"/>
-    <filterColumn colId="5">
+    <filterColumn colId="6">
       <filters blank="1">
         <filter val="10"/>
         <filter val="80"/>
@@ -2346,8 +2422,8 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="4">
-    <mergeCell ref="H20:J25"/>
-    <mergeCell ref="H8:J18"/>
+    <mergeCell ref="I20:K25"/>
+    <mergeCell ref="I8:K18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -2359,12 +2435,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2374,12 +2450,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Task Name</t>
   </si>
@@ -676,159 +676,32 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Khi chọn filter TROM thì TPS ra được danh sách, nhưng khi chọn TPS thì TPR không list ra được danh sách nhân viên Salesmen. Tương tự với PSR1 và PSR2 cũng không ra được danh sách nhân viên sales, Sơn xem bên phần Salesmen thì vẫn ra được kết quả.</t>
-    </r>
+      <t xml:space="preserve">Sơn mới kiểm tra lại thì thấy dev trước đó chưa làm chức năng nhận SMS từ bên ngoài, chỉ mới làm chức năng gừi SMS từ hệ thống đến khách hàng và nhân viên Sales thôi. Nên Đan làm thêm chức năng này giúp Sơn nhé. Thanks Đan.
+Đan tham khảo tài liệu gửi và nhận SMS thông qua FIBO trong folder </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>\trunk\01_DOCUMENT\FIBO - SMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> này nhé.</t>
+    </r>
+  </si>
+  <si>
+    <t>not yet</t>
+  </si>
+  <si>
+    <t>Need to review</t>
   </si>
   <si>
     <r>
@@ -990,37 +863,201 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Sau khi đã approved rồi thì không hiển thị "edited customer" record trong grid Data "Edited Customers" nữa.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sơn mới kiểm tra lại thì thấy dev trước đó chưa làm chức năng nhận SMS từ bên ngoài, chỉ mới làm chức năng gừi SMS từ hệ thống đến khách hàng và nhân viên Sales thôi. Nên Đan làm thêm chức năng này giúp Sơn nhé. Thanks Đan.
-Đan tham khảo tài liệu gửi và nhận SMS thông qua FIBO trong folder </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>\trunk\01_DOCUMENT\FIBO - SMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> này nhé.</t>
-    </r>
-  </si>
-  <si>
-    <t>not yet</t>
-  </si>
-  <si>
-    <t>Need to review</t>
+      <t xml:space="preserve">[Sơn] - Sau khi đã approved rồi thì không hiển thị "edited customer" record trong grid Data "Edited Customers" nữa.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Neu sau khi da approved thi` ko hien thi o "Edited Customers" nua thi` nguoi dun`ng se ko con` cach na`o de xoa cai CustomerLog do nua (vi` ko hien thi o Edited Customer grid thi` se ko the view duoc bang View Log. Do do de ko hien thi o Edit Customer mi`nh co the la`m la` sau khi approved thi` xoa luon record do trong Customer Log hoac giu nguyen nhu hien tai. Son cho biet y kien nhe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi chọn filter TROM thì TPS ra được danh sách, nhưng khi chọn TPS thì TPR không list ra được danh sách nhân viên Salesmen. Tương tự với PSR1 và PSR2 cũng không ra được danh sách nhân viên sales, Sơn xem bên phần Salesmen thì vẫn ra được kết quả.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] da fixed. Son chu y la` phan Dashboard can phai co chua Phone Number dung voi du lieu import thi` Dashboard moi co du lieu nha</t>
+    </r>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.
+[Dan] fixed</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1132,7 +1169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,6 +1218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1209,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1324,6 +1367,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,7 +1833,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1851,7 +1897,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1963,7 +2009,7 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
@@ -1976,7 +2022,7 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G13" s="22">
         <v>95</v>
@@ -2096,19 +2142,19 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="18">
@@ -2125,14 +2171,14 @@
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="39" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="18">
@@ -2187,7 +2233,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>9</v>
@@ -2195,7 +2241,7 @@
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G24" s="18"/>
       <c r="I24" s="35"/>
@@ -2234,7 +2280,7 @@
     <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>9</v>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -704,6 +704,9 @@
     <t>Need to review</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
 - </t>
@@ -874,7 +877,100 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Neu sau khi da approved thi` ko hien thi o "Edited Customers" nua thi` nguoi dun`ng se ko con` cach na`o de xoa cai CustomerLog do nua (vi` ko hien thi o Edited Customer grid thi` se ko the view duoc bang View Log. Do do de ko hien thi o Edit Customer mi`nh co the la`m la` sau khi approved thi` xoa luon record do trong Customer Log hoac giu nguyen nhu hien tai. Son cho biet y kien nhe</t>
+      <t xml:space="preserve">[Dan] Neu sau khi da approved thi` ko hien thi o "Edited Customers" nua thi` nguoi dun`ng se ko con` cach na`o de xoa cai CustomerLog do nua (vi` ko hien thi o Edited Customer grid thi` se ko the view duoc bang View Log. Do do de ko hien thi o Edit Customer mi`nh co the la`m la` sau khi approved thi` xoa luon record do trong Customer Log hoac giu nguyen nhu hien tai. Son cho biet y kien nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Vậy mình có thể cho dòng đó tô màu khác để đánh dấu là đã approve rồi được không Đan ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Cần Đan. Mình thêm POS POC cho cả 2 luôn nha (Salesmen và Customer). Thanks Đan.</t>
     </r>
   </si>
   <si>
@@ -923,26 +1019,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] da fixed. Son chu y la` phan Dashboard can phai co chua Phone Number dung voi du lieu import thi` Dashboard moi co du lieu nha</t>
-    </r>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+      <t xml:space="preserve">[Dan] da fixed. Son chu y la` phan Dashboard can phai co chua Phone Number dung voi du lieu import thi` Dashboard moi co du lieu nha
 </t>
     </r>
     <r>
@@ -953,7 +1030,23 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
+      <t>[Sơn] - Thanks Đan. Sơn sẽ test lại sau nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
 </t>
     </r>
     <r>
@@ -964,7 +1057,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
 </t>
     </r>
     <r>
@@ -975,8 +1068,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
-</t>
+      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
     </r>
     <r>
       <rPr>
@@ -986,8 +1078,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
-</t>
+      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
     </r>
     <r>
       <rPr>
@@ -997,23 +1088,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
+      <t xml:space="preserve">.
+[Dan] fixed
 </t>
     </r>
     <r>
@@ -1024,47 +1100,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.
-[Dan] fixed</t>
+      <t>[Sơn] - Thanks Đan. Sơn sẽ test lại sau nhé.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1353,6 +1397,9 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1367,9 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1482,7 +1526,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1826,17 +1870,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1847,22 +1891,22 @@
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1870,23 +1914,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +1947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1919,13 +1963,13 @@
       <c r="G8" s="22">
         <v>100</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1941,11 +1985,11 @@
       <c r="G9" s="22">
         <v>100</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -1963,11 +2007,11 @@
       <c r="G10" s="22">
         <v>100</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -1985,11 +2029,11 @@
       <c r="G11" s="22">
         <v>100</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -2005,16 +2049,16 @@
       <c r="G12" s="22">
         <v>100</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" customHeight="1">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
@@ -2027,11 +2071,11 @@
       <c r="G13" s="22">
         <v>95</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -2047,11 +2091,11 @@
       <c r="G14" s="22">
         <v>100</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -2067,11 +2111,11 @@
       <c r="G15" s="22">
         <v>100</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -2087,11 +2131,11 @@
       <c r="G16" s="22">
         <v>100</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -2107,11 +2151,11 @@
       <c r="G17" s="22">
         <v>100</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -2129,11 +2173,11 @@
       <c r="G18" s="22">
         <v>100</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -2142,31 +2186,31 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="143.25" customHeight="1">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="39" t="s">
-        <v>31</v>
+      <c r="F20" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="G20" s="18">
         <v>10</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="116.25" customHeight="1">
       <c r="A21" s="18">
         <v>2</v>
       </c>
@@ -2178,17 +2222,17 @@
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="39" t="s">
-        <v>31</v>
+      <c r="F21" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="G21" s="18">
         <v>80</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
       <c r="A22" s="18">
         <v>3</v>
       </c>
@@ -2204,11 +2248,11 @@
       <c r="G22" s="18">
         <v>100</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -2224,16 +2268,16 @@
       <c r="G23" s="18">
         <v>100</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="153" customHeight="1">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>9</v>
@@ -2244,11 +2288,11 @@
         <v>27</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -2264,11 +2308,11 @@
       <c r="G25" s="18">
         <v>100</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -2277,7 +2321,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="30" t="s">
         <v>26</v>
@@ -2294,7 +2338,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -2303,7 +2347,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2312,7 +2356,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -2321,7 +2365,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="21.95" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2330,7 +2374,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -2339,7 +2383,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -2348,7 +2392,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -2357,7 +2401,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2366,7 +2410,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2375,7 +2419,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2384,7 +2428,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2393,7 +2437,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2402,7 +2446,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2411,7 +2455,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2420,7 +2464,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2429,7 +2473,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2438,7 +2482,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2447,7 +2491,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="21.95" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -2481,12 +2525,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2496,12 +2540,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -708,6 +708,218 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Cần Đan. Mình thêm POS POC cho cả 2 luôn nha (Salesmen và Customer). Thanks Đan.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi chọn filter TROM thì TPS ra được danh sách, nhưng khi chọn TPS thì TPR không list ra được danh sách nhân viên Salesmen. Tương tự với PSR1 và PSR2 cũng không ra được danh sách nhân viên sales, Sơn xem bên phần Salesmen thì vẫn ra được kết quả.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] da fixed. Son chu y la` phan Dashboard can phai co chua Phone Number dung voi du lieu import thi` Dashboard moi co du lieu nha
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Thanks Đan. Sơn sẽ test lại sau nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+[Dan] fixed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Thanks Đan. Sơn sẽ test lại sau nhé.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Trong phần View Log của Edited Customers, sau khi hoàn tất task thứ 5 thì ta có 2 grid dữ liệu :
 - </t>
     </r>
@@ -888,227 +1100,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>[Sơn] - Vậy mình có thể cho dòng đó tô màu khác để đánh dấu là đã approve rồi được không Đan ?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Cần Đan. Mình thêm POS POC cho cả 2 luôn nha (Salesmen và Customer). Thanks Đan.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Dashboard, thêm phần search và filter theo vùng (POC và POS).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Khi chọn filter TROM thì TPS ra được danh sách, nhưng khi chọn TPS thì TPR không list ra được danh sách nhân viên Salesmen. Tương tự với PSR1 và PSR2 cũng không ra được danh sách nhân viên sales, Sơn xem bên phần Salesmen thì vẫn ra được kết quả.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] da fixed. Son chu y la` phan Dashboard can phai co chua Phone Number dung voi du lieu import thi` Dashboard moi co du lieu nha
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Thanks Đan. Sơn sẽ test lại sau nhé.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Salesmen, thêm 2 combo box POC và POS để lọc dữ liệu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Khi filter thì dữ liệu ra chưa đúng. Sơn nghĩ là do import dữ liệu sai nên data bị sai. Cái này mình sẽ test lại sau khi làm xong chức năng import sau nha Đan.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Kết quả Filter và Search ra đúng rồi Đan. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Nhưng dữ liệu bị lặp lại khi mình filter theo Groups, Region, Area, Local nên mình cần Distince hoặc Group By lại sao cho mỗi tên Salesmen chỉ xuất hiện 1 lần trong grid Data mà thôi</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-[Dan] fixed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Thanks Đan. Sơn sẽ test lại sau nhé.</t>
+      <t xml:space="preserve">[Sơn] - Vậy mình có thể cho dòng đó tô màu khác để đánh dấu là đã approve rồi được không Đan ?
+[Dan] Done
+</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1526,7 +1528,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1870,7 +1872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -1880,7 +1882,7 @@
       <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -1891,7 +1893,7 @@
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
@@ -1899,14 +1901,14 @@
       <c r="C1" s="39"/>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1">
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1914,19 +1916,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1969,7 +1971,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1">
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <v>3</v>
       </c>
@@ -2011,7 +2013,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
     </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
@@ -2033,7 +2035,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <v>5</v>
       </c>
@@ -2053,20 +2055,20 @@
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" customHeight="1">
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="33" t="s">
-        <v>28</v>
+      <c r="F13" s="34" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="22">
         <v>95</v>
@@ -2075,7 +2077,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <v>7</v>
       </c>
@@ -2095,7 +2097,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <v>8</v>
       </c>
@@ -2115,7 +2117,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
         <v>9</v>
       </c>
@@ -2135,7 +2137,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
         <v>10</v>
       </c>
@@ -2155,7 +2157,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <v>11</v>
       </c>
@@ -2177,7 +2179,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
@@ -2186,12 +2188,12 @@
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="143.25" customHeight="1">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
@@ -2210,12 +2212,12 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="116.25" customHeight="1">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>9</v>
@@ -2232,7 +2234,7 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <v>3</v>
       </c>
@@ -2252,7 +2254,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <v>4</v>
       </c>
@@ -2272,12 +2274,12 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="153" customHeight="1">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>9</v>
@@ -2292,7 +2294,7 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <v>6</v>
       </c>
@@ -2312,7 +2314,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
@@ -2321,7 +2323,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="10"/>
     </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1">
+    <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29"/>
       <c r="B27" s="30" t="s">
         <v>26</v>
@@ -2338,7 +2340,7 @@
       <c r="F27" s="31"/>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
@@ -2347,7 +2349,7 @@
       <c r="F28" s="12"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
@@ -2356,7 +2358,7 @@
       <c r="F29" s="12"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
@@ -2365,7 +2367,7 @@
       <c r="F30" s="12"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="21.95" customHeight="1">
+    <row r="31" spans="1:11" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="13"/>
@@ -2374,7 +2376,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
@@ -2383,7 +2385,7 @@
       <c r="F32" s="12"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
@@ -2392,7 +2394,7 @@
       <c r="F33" s="12"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
@@ -2401,7 +2403,7 @@
       <c r="F34" s="12"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2410,7 +2412,7 @@
       <c r="F35" s="12"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2419,7 +2421,7 @@
       <c r="F36" s="12"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2428,7 +2430,7 @@
       <c r="F37" s="12"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2437,7 +2439,7 @@
       <c r="F38" s="12"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2446,7 +2448,7 @@
       <c r="F39" s="12"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2455,7 +2457,7 @@
       <c r="F40" s="12"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2464,7 +2466,7 @@
       <c r="F41" s="12"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="42" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
@@ -2473,7 +2475,7 @@
       <c r="F42" s="12"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
@@ -2482,7 +2484,7 @@
       <c r="F43" s="12"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="44" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
@@ -2491,7 +2493,7 @@
       <c r="F44" s="12"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:7" ht="21.95" customHeight="1">
+    <row r="45" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="C45" s="16"/>
@@ -2525,12 +2527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2540,12 +2542,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Task Name</t>
   </si>
@@ -698,95 +698,10 @@
     </r>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>Need to review</t>
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Sơn] - Cần Đan. Mình thêm POS POC cho cả 2 luôn nha (Salesmen và Customer). Thanks Đan.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1103,6 +1018,89 @@
       <t xml:space="preserve">[Sơn] - Vậy mình có thể cho dòng đó tô màu khác để đánh dấu là đã approve rồi được không Đan ?
 [Dan] Done
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Phone List, hiển thị sai dữ liệu vì sai business rule. Filter để lọc bớt dữ liệu chứ không phải như hiện tại.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro giup minh Phone List nam o trang nao luon di, minh ko tim thay trong Administrator co cho na`o co Phone List het
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - Đan click vào SMS List &gt; Compose &gt; click nút Browse ở mục To... sẽ ra Phone List
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Done, co`n phan xoa cac Phone da gan thi` do cach lam hien tai hoi la. voi mi`nh nen chua co time coi, tam thoi de do di, chung nao co thoi gian minh se coi va lam them phan do
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Sơn] - OK rồi Đan nhưng mình cần chỉnh sửa lại theo khái niệm POC và POS nữa thì mới đúng được. Để Sơn vẽ lại giao diện rồi mô tả thêm cho Đan dễ hiểu nha.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Neu duoc Son cu mail cho tien nhe, vi gio giac hai ben chenh lech
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Dan] Son noi ro luon la` co can filter them theo POS POC cho phan nay ko nhe
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Sơn] - Cần Đan. Mình thêm POS POC cho cả 2 luôn nha (Salesmen và Customer). Thanks Đan.
+[Dan] code xong, mai se test nhieu ve businees</t>
     </r>
   </si>
 </sst>
@@ -1298,7 +1296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1396,9 +1394,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,6 +1410,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1879,7 +1880,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1894,12 +1895,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1929,10 +1930,10 @@
       <c r="D5" s="7"/>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="26" t="s">
         <v>20</v>
@@ -1965,11 +1966,11 @@
       <c r="G8" s="22">
         <v>100</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
@@ -1987,9 +1988,9 @@
       <c r="G9" s="22">
         <v>100</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -2009,9 +2010,9 @@
       <c r="G10" s="22">
         <v>100</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -2031,9 +2032,9 @@
       <c r="G11" s="22">
         <v>100</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -2051,31 +2052,31 @@
       <c r="G12" s="22">
         <v>100</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <v>6</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="34" t="s">
-        <v>29</v>
+      <c r="F13" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="G13" s="22">
         <v>95</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -2093,9 +2094,9 @@
       <c r="G14" s="22">
         <v>100</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -2113,9 +2114,9 @@
       <c r="G15" s="22">
         <v>100</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
@@ -2133,9 +2134,9 @@
       <c r="G16" s="22">
         <v>100</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
@@ -2153,9 +2154,9 @@
       <c r="G17" s="22">
         <v>100</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
@@ -2175,9 +2176,9 @@
       <c r="G18" s="22">
         <v>100</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
@@ -2193,46 +2194,46 @@
         <v>1</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="34" t="s">
-        <v>29</v>
+      <c r="F20" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="G20" s="18">
         <v>10</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <v>2</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="34" t="s">
-        <v>29</v>
+      <c r="F21" s="33" t="s">
+        <v>28</v>
       </c>
       <c r="G21" s="18">
         <v>80</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
@@ -2250,9 +2251,9 @@
       <c r="G22" s="18">
         <v>100</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
@@ -2270,29 +2271,29 @@
       <c r="G23" s="18">
         <v>100</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="33" t="s">
-        <v>27</v>
+      <c r="F24" s="39">
+        <v>0.6</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
@@ -2310,9 +2311,9 @@
       <c r="G25" s="18">
         <v>100</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
@@ -2337,7 +2338,9 @@
       <c r="E27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="31"/>
+      <c r="F27" s="40" t="s">
+        <v>28</v>
+      </c>
       <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
   <si>
     <t>Task Name</t>
   </si>
@@ -1100,7 +1100,8 @@
         <family val="2"/>
       </rPr>
       <t>[Sơn] - Cần Đan. Mình thêm POS POC cho cả 2 luôn nha (Salesmen và Customer). Thanks Đan.
-[Dan] code xong, mai se test nhieu ve businees</t>
+[Dan] code xong, mai se test nhieu ve businees
+[Dan] Done</t>
     </r>
   </si>
 </sst>
@@ -1397,6 +1398,9 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1413,9 +1417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1878,9 +1879,9 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1895,12 +1896,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1930,10 +1931,10 @@
       <c r="D5" s="7"/>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1966,11 +1967,11 @@
       <c r="G8" s="22">
         <v>100</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
@@ -1988,9 +1989,9 @@
       <c r="G9" s="22">
         <v>100</v>
       </c>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
@@ -2010,9 +2011,9 @@
       <c r="G10" s="22">
         <v>100</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
@@ -2032,9 +2033,9 @@
       <c r="G11" s="22">
         <v>100</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
@@ -2052,9 +2053,9 @@
       <c r="G12" s="22">
         <v>100</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -2074,9 +2075,9 @@
       <c r="G13" s="22">
         <v>95</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -2094,9 +2095,9 @@
       <c r="G14" s="22">
         <v>100</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -2114,9 +2115,9 @@
       <c r="G15" s="22">
         <v>100</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22">
@@ -2134,9 +2135,9 @@
       <c r="G16" s="22">
         <v>100</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22">
@@ -2154,9 +2155,9 @@
       <c r="G17" s="22">
         <v>100</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
@@ -2176,9 +2177,9 @@
       <c r="G18" s="22">
         <v>100</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
@@ -2207,11 +2208,11 @@
       <c r="G20" s="18">
         <v>10</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
@@ -2231,9 +2232,9 @@
       <c r="G21" s="18">
         <v>80</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
@@ -2251,9 +2252,9 @@
       <c r="G22" s="18">
         <v>100</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
@@ -2271,11 +2272,11 @@
       <c r="G23" s="18">
         <v>100</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <v>5</v>
       </c>
@@ -2287,13 +2288,13 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="39">
-        <v>0.6</v>
+      <c r="F24" s="40" t="s">
+        <v>28</v>
       </c>
       <c r="G24" s="18"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
@@ -2311,9 +2312,9 @@
       <c r="G25" s="18">
         <v>100</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
@@ -2338,7 +2339,7 @@
       <c r="E27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="34" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="29"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$G$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$G$29</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Task Name</t>
   </si>
@@ -1103,13 +1103,83 @@
 [Dan] code xong, mai se test nhieu ve businees
 [Dan] Done</t>
     </r>
+  </si>
+  <si>
+    <t>Trong phần Promotion, khi thêm mới hoặc chỉnh sửa record, lưu lại history của tất cả các filter khi user chọn số điện thoại và filter dữ liệu sau khi nhấn nút "Submit". Đan thêm 1 table "history" liên kết với table "promotion" giúp Sơn nhé. Đan xem hình bên "Images" sheet để hiểu rõ hơn nha.</t>
+  </si>
+  <si>
+    <t>User click Add new record và hiển thị ra form này.</t>
+  </si>
+  <si>
+    <t>Sau đó thực hiện 1 số thao tác filter dữ liệu để chọn Customer hoặc Salesmen.</t>
+  </si>
+  <si>
+    <t>Khi user click vào nút X của row nào thì xóa row đó đi và đồng thời remove các số điện thoại của row đó ra khỏi danh sách "Phone Numbers"</t>
+  </si>
+  <si>
+    <t>Sau khi user nhấn nút Submit thì mình sẽ lưu lại các thao tác đó vào list kế bên.
+Đan có thể tách số điện thoại ra riêng 1 column luôn cũng được để viết code xử lý cho dễ.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trong phần Promotion, khi thêm mới hoặc chỉnh sửa record, nếu user chưa nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPI Code, Title, Phone Numbers, Start date, End date và SMS Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> thì hiện ra thông báo để user biết. Field "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Web Content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" không bắt buộc nhập.</t>
+    </r>
+  </si>
+  <si>
+    <t>Trong phần Promotion, khi thêm mới hoặc chỉnh sửa record, chỉnh lại bề width của Title bằng với bề width của SMS Content</t>
+  </si>
+  <si>
+    <t>Trong phần Contacts của Customer Portal, Chỉ show ra danh sách ROM, SUB, REP của Customer đó mà thôi. Tổng cộng hiển thị ra 3 record gồm ROM, SUB, REP.</t>
+  </si>
+  <si>
+    <t>Trong phần Customer Management của Salesmen (login vào Sales Portal), khi chỉnh sửa record, chỉnh lại bề width của các textbox bằng với bề width của Note Of Salesmen.</t>
+  </si>
+  <si>
+    <t>Trong phần Customer của cả 3 Portal, khi "View Detail" một customer nào đó, danh sách List of Salesmen của Customer bị sai. Chỉ show ra danh sách ROM, SUB, REP của Customer đó mà thôi. Tổng cộng hiển thị 3 record gồm ROM, SUB, REP.</t>
+  </si>
+  <si>
+    <t>Trong phần Customer Management của Salesmen (login vào Sales Portal), danh sách customer bị trùng lặp dữ liệu. Nên cần phải group by lại 1 record mà thôi cho cả 2 grid data : List of customers và Customers are waiting for approval.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1214,7 +1284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1269,6 +1339,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1297,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,12 +1411,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1380,27 +1450,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1416,8 +1483,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,39 +1588,109 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>477712</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38703</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Promotion - step 1.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10058400" cy="4693920"/>
+          <a:off x="47625" y="38100"/>
+          <a:ext cx="10469437" cy="4315428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>430087</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Promotion - step 2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4807725"/>
+          <a:ext cx="10469437" cy="4344005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>154725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>12667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Promotion - step 4.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="9679725"/>
+          <a:ext cx="10477500" cy="5849167"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,43 +2023,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="4" customWidth="1"/>
-    <col min="4" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1918,23 +2068,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1944,581 +2094,602 @@
       <c r="E7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22">
+      <c r="C8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1">
+      <c r="A9" s="20">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="22">
+      <c r="C9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="20">
         <v>100</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
+      <c r="A10" s="20">
         <v>3</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="22">
+      <c r="C10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="20">
         <v>100</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+      <c r="A11" s="20">
         <v>4</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="22">
+      <c r="C11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="20">
         <v>100</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="22">
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+      <c r="A12" s="20">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="22">
+      <c r="C12" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22">
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" hidden="1" customHeight="1">
+      <c r="A13" s="20">
         <v>6</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="33" t="s">
+      <c r="C13" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="22">
-        <v>95</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22">
+      <c r="G13" s="20">
+        <v>100</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1">
+      <c r="A14" s="20">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="22">
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
+      <c r="A15" s="20">
         <v>8</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="22">
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>9</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A16" s="20">
+        <v>9</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="22">
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
         <v>100</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A17" s="20">
         <v>10</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="22">
+      <c r="C17" s="20"/>
+      <c r="D17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22">
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="A18" s="20">
         <v>11</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="22">
+      <c r="C18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="20">
         <v>100</v>
       </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="143.25" hidden="1" customHeight="1">
+      <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="33" t="s">
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G19" s="16">
+        <v>100</v>
+      </c>
+      <c r="I19" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="116.25" hidden="1" customHeight="1">
+      <c r="A20" s="16">
         <v>2</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="33" t="s">
+      <c r="C20" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="18">
-        <v>80</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
+      <c r="G20" s="16">
+        <v>100</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
+      <c r="A21" s="16">
         <v>3</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B21" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="18">
+      <c r="C21" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="16">
         <v>100</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="51" hidden="1">
+      <c r="A22" s="16">
         <v>4</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="18">
+      <c r="C22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="16">
         <v>100</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1">
+      <c r="A23" s="16">
         <v>5</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="40" t="s">
+      <c r="C23" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="G23" s="16">
+        <v>100</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1">
+      <c r="A24" s="16">
         <v>6</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="18">
+      <c r="C24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="16">
         <v>100</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="71.25" hidden="1" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="56.25" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="1:11" s="3" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1">
       <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="47.25" customHeight="1">
       <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1">
       <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="43.5" customHeight="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1">
       <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="10"/>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="10"/>
-    </row>
-    <row r="45" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="16"/>
+    <row r="42" spans="1:7" ht="21.95" customHeight="1">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:G25">
+  <autoFilter ref="A7:G29">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="10"/>
-        <filter val="80"/>
-        <filter val="95"/>
+      <filters>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="4">
-    <mergeCell ref="I20:K25"/>
+    <mergeCell ref="I19:K24"/>
     <mergeCell ref="I8:K18"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:D1"/>
@@ -2531,27 +2702,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="S7:S64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="18" width="8.85546875" style="40"/>
+    <col min="19" max="19" width="26" style="39" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="19:19" ht="33.75" customHeight="1">
+      <c r="S7" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19" ht="53.25" customHeight="1">
+      <c r="S36" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="19:19" ht="114.75">
+      <c r="S62" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="19:19" ht="76.5">
+      <c r="S64" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Task Name</t>
   </si>
@@ -1173,13 +1173,16 @@
   </si>
   <si>
     <t>Trong phần Customer Management của Salesmen (login vào Sales Portal), danh sách customer bị trùng lặp dữ liệu. Nên cần phải group by lại 1 record mà thôi cho cả 2 grid data : List of customers và Customers are waiting for approval.</t>
+  </si>
+  <si>
+    <t>Issue nay co the do du lieu vi` o local cua minh co distinct hay khong ket qua cung tuong tu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1373,7 +1376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1468,6 +1471,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1482,21 +1503,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2023,17 +2029,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="108" style="1" bestFit="1" customWidth="1"/>
@@ -2044,15 +2050,15 @@
     <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2060,7 +2066,7 @@
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -2068,23 +2074,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -2117,13 +2123,13 @@
       <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -2139,11 +2145,11 @@
       <c r="G9" s="20">
         <v>100</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>3</v>
       </c>
@@ -2161,11 +2167,11 @@
       <c r="G10" s="20">
         <v>100</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>4</v>
       </c>
@@ -2183,11 +2189,11 @@
       <c r="G11" s="20">
         <v>100</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>5</v>
       </c>
@@ -2203,11 +2209,11 @@
       <c r="G12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" hidden="1" customHeight="1">
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>6</v>
       </c>
@@ -2225,11 +2231,11 @@
       <c r="G13" s="20">
         <v>100</v>
       </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1">
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>7</v>
       </c>
@@ -2245,11 +2251,11 @@
       <c r="G14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -2265,11 +2271,11 @@
       <c r="G15" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>9</v>
       </c>
@@ -2285,11 +2291,11 @@
       <c r="G16" s="20">
         <v>100</v>
       </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>10</v>
       </c>
@@ -2305,11 +2311,11 @@
       <c r="G17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1">
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>11</v>
       </c>
@@ -2327,11 +2333,11 @@
       <c r="G18" s="20">
         <v>100</v>
       </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="143.25" hidden="1" customHeight="1">
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="143.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>1</v>
       </c>
@@ -2349,13 +2355,13 @@
       <c r="G19" s="16">
         <v>100</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="116.25" hidden="1" customHeight="1">
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -2373,11 +2379,11 @@
       <c r="G20" s="16">
         <v>100</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1">
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>3</v>
       </c>
@@ -2393,11 +2399,11 @@
       <c r="G21" s="16">
         <v>100</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="51" hidden="1">
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>4</v>
       </c>
@@ -2413,11 +2419,11 @@
       <c r="G22" s="16">
         <v>100</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1">
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>5</v>
       </c>
@@ -2435,11 +2441,11 @@
       <c r="G23" s="16">
         <v>100</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>6</v>
       </c>
@@ -2455,11 +2461,11 @@
       <c r="G24" s="16">
         <v>100</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="71.25" hidden="1" customHeight="1">
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
         <v>26</v>
@@ -2480,134 +2486,137 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="56.25" customHeight="1">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="38"/>
+      <c r="C26" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
       <c r="G26" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" ht="48.75" customHeight="1">
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1">
+      <c r="C27" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="47.25" customHeight="1">
+      <c r="C28" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1">
+      <c r="C29" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="43.5" customHeight="1">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="37">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1">
+      <c r="C31" s="32"/>
+      <c r="D31" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2616,7 +2625,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2625,7 +2634,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2634,7 +2643,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2643,7 +2652,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2652,7 +2661,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2661,7 +2670,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1">
+    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2670,7 +2679,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="21.95" customHeight="1">
+    <row r="42" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="14"/>
@@ -2702,37 +2711,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="S7:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.85546875" style="40"/>
-    <col min="19" max="19" width="26" style="39" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="40"/>
+    <col min="1" max="18" width="8.85546875" style="35"/>
+    <col min="19" max="19" width="26" style="34" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="35"/>
   </cols>
   <sheetData>
-    <row r="7" spans="19:19" ht="33.75" customHeight="1">
-      <c r="S7" s="41" t="s">
+    <row r="7" spans="19:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="19:19" ht="53.25" customHeight="1">
-      <c r="S36" s="41" t="s">
+    <row r="36" spans="19:19" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="19:19" ht="114.75">
-      <c r="S62" s="41" t="s">
+    <row r="62" spans="19:19" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="S62" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="19:19" ht="76.5">
-      <c r="S64" s="41" t="s">
+    <row r="64" spans="19:19" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="S64" s="36" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2746,12 +2755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="20610" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Task Name</t>
   </si>
@@ -1176,13 +1176,25 @@
   </si>
   <si>
     <t>Issue nay co the do du lieu vi` o local cua minh co distinct hay khong ket qua cung tuong tu</t>
+  </si>
+  <si>
+    <t>[Tam] Bề width của Title vẫn chưa được sửa</t>
+  </si>
+  <si>
+    <t>[Tam] còn Field Ward bề width vẫn nhỏ hơn</t>
+  </si>
+  <si>
+    <t>[Tam] Không hiện thông báo khi các field bắt buộc là null</t>
+  </si>
+  <si>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1190,6 +1202,8 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <b/>
@@ -1286,6 +1300,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1376,7 +1396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1503,6 +1523,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2034,9 +2057,9 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2515,6 +2538,9 @@
       <c r="G27" s="37">
         <v>1</v>
       </c>
+      <c r="I27" s="43" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
@@ -2530,6 +2556,9 @@
       <c r="G28" s="37">
         <v>1</v>
       </c>
+      <c r="I28" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
@@ -2549,6 +2578,9 @@
       <c r="G29" s="37">
         <v>1</v>
       </c>
+      <c r="I29" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
@@ -2582,6 +2614,9 @@
       <c r="G31" s="37">
         <v>1</v>
       </c>
+      <c r="I31" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
@@ -2596,6 +2631,9 @@
       <c r="F32" s="33"/>
       <c r="G32" s="37">
         <v>1</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="20610" windowHeight="11580"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="19320" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1509,6 +1509,9 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1523,9 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,7 +2059,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2074,12 +2074,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2110,10 +2110,10 @@
       <c r="D5" s="7"/>
     </row>
     <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2146,11 +2146,11 @@
       <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
@@ -2168,9 +2168,9 @@
       <c r="G9" s="20">
         <v>100</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
@@ -2190,9 +2190,9 @@
       <c r="G10" s="20">
         <v>100</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
@@ -2212,9 +2212,9 @@
       <c r="G11" s="20">
         <v>100</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
@@ -2232,9 +2232,9 @@
       <c r="G12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
@@ -2254,9 +2254,9 @@
       <c r="G13" s="20">
         <v>100</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
@@ -2274,9 +2274,9 @@
       <c r="G14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
@@ -2294,9 +2294,9 @@
       <c r="G15" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
@@ -2314,9 +2314,9 @@
       <c r="G16" s="20">
         <v>100</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
@@ -2334,9 +2334,9 @@
       <c r="G17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
@@ -2356,9 +2356,9 @@
       <c r="G18" s="20">
         <v>100</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="143.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
@@ -2378,11 +2378,11 @@
       <c r="G19" s="16">
         <v>100</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
@@ -2402,9 +2402,9 @@
       <c r="G20" s="16">
         <v>100</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
@@ -2422,9 +2422,9 @@
       <c r="G21" s="16">
         <v>100</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
@@ -2442,9 +2442,9 @@
       <c r="G22" s="16">
         <v>100</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
@@ -2464,9 +2464,9 @@
       <c r="G23" s="16">
         <v>100</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
@@ -2484,9 +2484,9 @@
       <c r="G24" s="16">
         <v>100</v>
       </c>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
@@ -2520,8 +2520,8 @@
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="10">
-        <v>0</v>
+      <c r="G26" s="37">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,7 +2538,7 @@
       <c r="G27" s="37">
         <v>1</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="38" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="S7:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>

--- a/trunk/01_DOCUMENT/Client Review.xlsx
+++ b/trunk/01_DOCUMENT/Client Review.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="19320" windowHeight="11580"/>
+    <workbookView xWindow="165" yWindow="120" windowWidth="19320" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$7:$G$29</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Task Name</t>
   </si>
@@ -1178,16 +1178,31 @@
     <t>Issue nay co the do du lieu vi` o local cua minh co distinct hay khong ket qua cung tuong tu</t>
   </si>
   <si>
-    <t>[Tam] Bề width của Title vẫn chưa được sửa</t>
-  </si>
-  <si>
-    <t>[Tam] còn Field Ward bề width vẫn nhỏ hơn</t>
-  </si>
-  <si>
-    <t>[Tam] Không hiện thông báo khi các field bắt buộc là null</t>
-  </si>
-  <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>[Tam] Bề width của Title vẫn chưa được sửa
+Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Tam] còn Field Ward bề width vẫn nhỏ hơn
+[Tam] re-test 10/07/2012 
+chỉnh lại bề width của Customer Type, Address, Street, Ward </t>
+  </si>
+  <si>
+    <t>[Tam] Không hiện thông báo khi các field bắt buộc là null
+Fixed</t>
+  </si>
+  <si>
+    <t>Alert "A script on this page may be busy, or it may have stopped responding. You can stop the script now, open the script in the debugger, or let the script continue.
+Script: http://pharma.u-matrixsoft.com/Telerik.Web.UI.WebResource.axd?_TSM_HiddenField_=RadScriptManager1_TSM&amp;compress=1&amp;_TSM_CombinedScripts_=%3b%3bSystem.Web.Extensions%2c+Version%3d4.0.0.0%2c+Culture%3dneutral%2c+PublicKeyToken%3d31bf3856ad364e35%3aen-US%3a8f393b2b-3315-402f-b504-cd6d2db001f6%3aea597d4b%3ab25378d2%3bTelerik.Web.UI%2c+Version%3d2011.1.315.0%2c+Culture%3dneutral%2c+PublicKeyToken%3d29ac1a93ec063d92%3aen-US%3aa4743b06-4031-4766-ba0b-698ea19f1dd2%3a16e4e7cd%3a86526ba7%3a874f8ea2%3af7645509%3aed16cbdc%3a58366029%3a24ee1bba%3af46195d3:4796"</t>
+  </si>
+  <si>
+    <t>[Tam] 
+1. chọn phone number có dấu phẩy trước phone number, insert thành công -&gt; phone number sẽ = số phone đã chọn + 1 (trước dấy phẩy), click vào column phone mumber thì alert ra lỗi (nôi dung bên J26 )
+2. Chọn nhiều lần với cùng 1 number phone, thì trong textbox hiện bấy nhiêu số phone
+3. Title Field Phone number cho hiện trươc textbox của nó
+4. Viền của table nhiều quá, nên bỏ bớt</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1509,9 +1524,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1526,6 +1538,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,7 +2077,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2070,16 +2088,18 @@
     <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="7" width="15.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="2.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="87.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="95.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -2109,11 +2129,11 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2130,7 +2150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
         <v>1</v>
       </c>
@@ -2146,13 +2166,13 @@
       <c r="G8" s="20">
         <v>100</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
         <v>2</v>
       </c>
@@ -2168,11 +2188,11 @@
       <c r="G9" s="20">
         <v>100</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-    </row>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="80.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
         <v>3</v>
       </c>
@@ -2190,11 +2210,11 @@
       <c r="G10" s="20">
         <v>100</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" spans="1:11" s="3" customFormat="1" ht="84.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
         <v>4</v>
       </c>
@@ -2212,11 +2232,11 @@
       <c r="G11" s="20">
         <v>100</v>
       </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>5</v>
       </c>
@@ -2232,11 +2252,11 @@
       <c r="G12" s="20">
         <v>100</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="195.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
         <v>6</v>
       </c>
@@ -2254,11 +2274,11 @@
       <c r="G13" s="20">
         <v>100</v>
       </c>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-    </row>
-    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
         <v>7</v>
       </c>
@@ -2274,11 +2294,11 @@
       <c r="G14" s="20">
         <v>100</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-    </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" ht="80.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
         <v>8</v>
       </c>
@@ -2294,11 +2314,11 @@
       <c r="G15" s="20">
         <v>100</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
         <v>9</v>
       </c>
@@ -2314,11 +2334,11 @@
       <c r="G16" s="20">
         <v>100</v>
       </c>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
         <v>10</v>
       </c>
@@ -2334,11 +2354,11 @@
       <c r="G17" s="20">
         <v>100</v>
       </c>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-    </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
         <v>11</v>
       </c>
@@ -2356,11 +2376,11 @@
       <c r="G18" s="20">
         <v>100</v>
       </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-    </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="143.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>1</v>
       </c>
@@ -2378,13 +2398,13 @@
       <c r="G19" s="16">
         <v>100</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="116.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -2402,11 +2422,11 @@
       <c r="G20" s="16">
         <v>100</v>
       </c>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="81.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>3</v>
       </c>
@@ -2422,11 +2442,11 @@
       <c r="G21" s="16">
         <v>100</v>
       </c>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>4</v>
       </c>
@@ -2442,11 +2462,11 @@
       <c r="G22" s="16">
         <v>100</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-    </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+    </row>
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>5</v>
       </c>
@@ -2464,11 +2484,11 @@
       <c r="G23" s="16">
         <v>100</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-    </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>6</v>
       </c>
@@ -2484,11 +2504,11 @@
       <c r="G24" s="16">
         <v>100</v>
       </c>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-    </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="71.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27" t="s">
         <v>26</v>
@@ -2509,7 +2529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
         <v>33</v>
@@ -2523,8 +2543,14 @@
       <c r="G26" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="13" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
         <v>38</v>
@@ -2538,11 +2564,11 @@
       <c r="G27" s="37">
         <v>1</v>
       </c>
-      <c r="I27" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I27" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="11" t="s">
         <v>39</v>
@@ -2556,11 +2582,11 @@
       <c r="G28" s="37">
         <v>1</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="3" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I28" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="11" t="s">
         <v>42</v>
@@ -2579,10 +2605,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="11" t="s">
         <v>43</v>
@@ -2600,7 +2626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="11" t="s">
         <v>41</v>
@@ -2614,11 +2640,11 @@
       <c r="G31" s="37">
         <v>1</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I31" s="43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="11" t="s">
         <v>40</v>
@@ -2633,10 +2659,10 @@
         <v>1</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="32"/>
@@ -2645,7 +2671,7 @@
       <c r="F33" s="33"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="32"/>
@@ -2654,7 +2680,7 @@
       <c r="F34" s="33"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
@@ -2663,7 +2689,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
@@ -2672,7 +2698,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
@@ -2681,7 +2707,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
@@ -2690,7 +2716,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
@@ -2699,7 +2725,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
@@ -2708,7 +2734,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
@@ -2717,7 +2743,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
     </row>
-    <row r="42" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="14"/>
       <c r="B42" s="15"/>
       <c r="C42" s="14"/>
@@ -2752,7 +2778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="S7:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
